--- a/גל טרור הבודדים.xlsx
+++ b/גל טרור הבודדים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GoogleTrendsTerrorWaves\GoogleTrendsTerrorWaves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668125DE-2C57-43D9-A320-3A19DB126B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B92CA16-1D79-4FDF-B7A7-69C42DD55CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F195D68-5474-40DA-8503-D7DAA8A11226}"/>
   </bookViews>
@@ -1549,31 +1549,31 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B7B0D-F13B-4FE7-902B-0573276DD81E}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>36</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
